--- a/한이음 DB.xlsx
+++ b/한이음 DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\river\Desktop\Hanium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\river\Desktop\Hanium\HaniumCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C90D3-77ED-479F-BB8F-E83794562F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A06088-8D9D-4341-99F9-9FFD9F72CD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{591EDCC0-116C-464D-8582-C39AE7742D5A}"/>
   </bookViews>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_STOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   <si>
     <t>모델을 통과하여
 매수 추천을 받은 종목 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETAINED_STOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,14 +258,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +584,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,299 +595,299 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C24:E30"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="C9:E11"/>
     <mergeCell ref="C13:E15"/>
     <mergeCell ref="C17:E22"/>
-    <mergeCell ref="C24:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
